--- a/trase_1_rawdata/trase_1_loaddata.xlsx
+++ b/trase_1_rawdata/trase_1_loaddata.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
